--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H2">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.59666833333334</v>
+        <v>1.041066666666667</v>
       </c>
       <c r="N2">
-        <v>91.79000500000001</v>
+        <v>3.1232</v>
       </c>
       <c r="O2">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171609</v>
       </c>
       <c r="P2">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171608</v>
       </c>
       <c r="Q2">
-        <v>2617.484639286714</v>
+        <v>0.02380884764444444</v>
       </c>
       <c r="R2">
-        <v>23557.36175358042</v>
+        <v>0.2142796288</v>
       </c>
       <c r="S2">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171609</v>
       </c>
       <c r="T2">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H3">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.745649666666668</v>
+        <v>7.745649666666666</v>
       </c>
       <c r="N3">
         <v>23.236949</v>
       </c>
       <c r="O3">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469766</v>
       </c>
       <c r="P3">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469765</v>
       </c>
       <c r="Q3">
-        <v>662.6250545621908</v>
+        <v>0.1771404259934444</v>
       </c>
       <c r="R3">
-        <v>5963.625491059717</v>
+        <v>1.594263833941</v>
       </c>
       <c r="S3">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469766</v>
       </c>
       <c r="T3">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H4">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.583913666666668</v>
+        <v>6.583913666666667</v>
       </c>
       <c r="N4">
         <v>19.751741</v>
       </c>
       <c r="O4">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="P4">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="Q4">
-        <v>563.2408307055828</v>
+        <v>0.1505719109187778</v>
       </c>
       <c r="R4">
-        <v>5069.167476350245</v>
+        <v>1.355147198269</v>
       </c>
       <c r="S4">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="T4">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
     </row>
   </sheetData>
